--- a/CH-105 Character Repetition.xlsx
+++ b/CH-105 Character Repetition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDD55CE-CBFB-40A2-B7A8-89223FD9715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2FAC4B-8AAA-4FCE-9B3B-72E9B0E9E134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34281,7 +34281,7 @@
   <dimension ref="B1:XEP50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
